--- a/Casos de Prueba.xlsx
+++ b/Casos de Prueba.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
   <si>
     <t>Nombre del proyecto</t>
   </si>
@@ -79,7 +79,7 @@
     <t>Que nos muestre el formulario para compleatr</t>
   </si>
   <si>
-    <t>No nos figura el formulario, si el botòn de inrgese pero no nos redirigea ningun lado</t>
+    <t>Funciona correctamente sin errores</t>
   </si>
   <si>
     <t>Registrar usuario</t>
@@ -140,6 +140,27 @@
   </si>
   <si>
     <t xml:space="preserve">Primero usamos la funcion formularioposteo.errors.as_data() para encontrar cual era el problema y que era lo que no nos validaba,. La manera que encontramos la solucion fue pasar los datos de initial al mostrar el posteo. Aun no comprendemos la razòn de porque eso nos permite hacer lo que previamente no podiamos. </t>
+  </si>
+  <si>
+    <t>Paginas de error 404 y 500 editables desde un html</t>
+  </si>
+  <si>
+    <t>Que al buscar una pagina que no exista y estes logueado te muestre el boton para redirigirte a portal y en caso de que no estes logueado te aparezca el boton de redirigirte a inicio</t>
+  </si>
+  <si>
+    <t>Las paginas de errores modificadas cumplen su funcion de forma correcta, no podemos usarlas sin desabilitar DEBUG de settings.py del proyecto. pero al hacerlo pierdo los datos de la imagen de perfil pero se mantienen la mayoria de los archivos staticos</t>
+  </si>
+  <si>
+    <t>Se pueden probar cambiando DEBUG = True por False en settings, actualmente no encontre solucio</t>
+  </si>
+  <si>
+    <t>Desplegar la pagina en un hosting</t>
+  </si>
+  <si>
+    <t>que la pagina se muestre correctamente en internet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">se probaron las paginas PythonAnywhere y Railway. ambas fallaron al no poder subir el proyecto correctamente, se descarto la idea por falta de tiempo. </t>
   </si>
 </sst>
 </file>
@@ -250,7 +271,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -285,9 +306,6 @@
     <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
@@ -308,6 +326,15 @@
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -776,8 +803,8 @@
       <c r="G8" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="12" t="b">
-        <v>0</v>
+      <c r="H8" s="8" t="b">
+        <v>1</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -810,15 +837,15 @@
       <c r="D9" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="14"/>
-      <c r="H9" s="12" t="b">
-        <v>0</v>
+      <c r="G9" s="13"/>
+      <c r="H9" s="8" t="b">
+        <v>1</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -857,9 +884,9 @@
       <c r="F10" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="15"/>
-      <c r="H10" s="12" t="b">
-        <v>0</v>
+      <c r="G10" s="14"/>
+      <c r="H10" s="8" t="b">
+        <v>1</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -898,7 +925,7 @@
       <c r="F11" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="G11" s="15"/>
+      <c r="G11" s="14"/>
       <c r="H11" s="8" t="b">
         <v>1</v>
       </c>
@@ -939,7 +966,7 @@
       <c r="F12" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="G12" s="16" t="s">
+      <c r="G12" s="15" t="s">
         <v>29</v>
       </c>
       <c r="H12" s="8" t="b">
@@ -970,19 +997,19 @@
       <c r="B13" s="8">
         <v>6.0</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="18" t="s">
+      <c r="E13" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="F13" s="18" t="s">
+      <c r="F13" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="G13" s="18" t="s">
+      <c r="G13" s="17" t="s">
         <v>34</v>
       </c>
       <c r="H13" s="8" t="b">
@@ -1013,19 +1040,19 @@
       <c r="B14" s="8">
         <v>7.0</v>
       </c>
-      <c r="C14" s="19">
+      <c r="C14" s="18">
         <v>44925.0</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="E14" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="F14" s="18" t="s">
+      <c r="F14" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="G14" s="18" t="s">
+      <c r="G14" s="17" t="s">
         <v>38</v>
       </c>
       <c r="H14" s="8" t="b">
@@ -1056,19 +1083,19 @@
       <c r="B15" s="8">
         <v>8.0</v>
       </c>
-      <c r="C15" s="19">
+      <c r="C15" s="18">
         <v>44929.0</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="E15" s="18" t="s">
+      <c r="E15" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="F15" s="18" t="s">
+      <c r="F15" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="G15" s="18" t="s">
+      <c r="G15" s="17" t="s">
         <v>42</v>
       </c>
       <c r="H15" s="8" t="b">
@@ -1094,15 +1121,29 @@
       <c r="Z15" s="1"/>
       <c r="AA15" s="1"/>
     </row>
-    <row r="16">
+    <row r="16" ht="96.75" customHeight="1">
       <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
+      <c r="B16" s="19">
+        <v>9.0</v>
+      </c>
+      <c r="C16" s="20">
+        <v>44934.0</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" s="19" t="b">
+        <v>1</v>
+      </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -1123,15 +1164,27 @@
       <c r="Z16" s="1"/>
       <c r="AA16" s="1"/>
     </row>
-    <row r="17">
+    <row r="17" ht="96.75" customHeight="1">
       <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
+      <c r="B17" s="19">
+        <v>10.0</v>
+      </c>
+      <c r="C17" s="20">
+        <v>44934.0</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="G17" s="21"/>
+      <c r="H17" s="19" t="b">
+        <v>1</v>
+      </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
@@ -29079,6 +29132,64 @@
       <c r="Z980" s="1"/>
       <c r="AA980" s="1"/>
     </row>
+    <row r="981">
+      <c r="A981" s="1"/>
+      <c r="B981" s="1"/>
+      <c r="C981" s="1"/>
+      <c r="D981" s="1"/>
+      <c r="E981" s="1"/>
+      <c r="F981" s="1"/>
+      <c r="G981" s="1"/>
+      <c r="H981" s="1"/>
+      <c r="I981" s="1"/>
+      <c r="J981" s="1"/>
+      <c r="K981" s="1"/>
+      <c r="L981" s="1"/>
+      <c r="M981" s="1"/>
+      <c r="N981" s="1"/>
+      <c r="O981" s="1"/>
+      <c r="P981" s="1"/>
+      <c r="Q981" s="1"/>
+      <c r="R981" s="1"/>
+      <c r="S981" s="1"/>
+      <c r="T981" s="1"/>
+      <c r="U981" s="1"/>
+      <c r="V981" s="1"/>
+      <c r="W981" s="1"/>
+      <c r="X981" s="1"/>
+      <c r="Y981" s="1"/>
+      <c r="Z981" s="1"/>
+      <c r="AA981" s="1"/>
+    </row>
+    <row r="982">
+      <c r="A982" s="1"/>
+      <c r="B982" s="1"/>
+      <c r="C982" s="1"/>
+      <c r="D982" s="1"/>
+      <c r="E982" s="1"/>
+      <c r="F982" s="1"/>
+      <c r="G982" s="1"/>
+      <c r="H982" s="1"/>
+      <c r="I982" s="1"/>
+      <c r="J982" s="1"/>
+      <c r="K982" s="1"/>
+      <c r="L982" s="1"/>
+      <c r="M982" s="1"/>
+      <c r="N982" s="1"/>
+      <c r="O982" s="1"/>
+      <c r="P982" s="1"/>
+      <c r="Q982" s="1"/>
+      <c r="R982" s="1"/>
+      <c r="S982" s="1"/>
+      <c r="T982" s="1"/>
+      <c r="U982" s="1"/>
+      <c r="V982" s="1"/>
+      <c r="W982" s="1"/>
+      <c r="X982" s="1"/>
+      <c r="Y982" s="1"/>
+      <c r="Z982" s="1"/>
+      <c r="AA982" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="C2:D2"/>
